--- a/src/test/resources/ExcelData/invalid.xlsx
+++ b/src/test/resources/ExcelData/invalid.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TRANING\JAVA\Apollo247\Apollo247\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674F265-A46A-42E9-BB32-BFF9E10735BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105493F-D891-4B55-A098-B301B9283CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8D6BC3F1-D1F4-4852-A4A4-A3D0250781F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>dolo</t>
+    <t>Dzxs</t>
   </si>
   <si>
-    <t>Dzxs</t>
+    <t>HB test</t>
+  </si>
+  <si>
+    <t>CBC test</t>
+  </si>
+  <si>
+    <t>dzz</t>
   </si>
 </sst>
 </file>
@@ -415,7 +422,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD384EB-5C71-451C-8732-428F03498A66}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F11F3-C0E2-4FA6-A8CF-89DFAF00206A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -423,12 +453,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
